--- a/data/trans_camb/P16B10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 63,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 54,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 37,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 40,7</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 178,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 119,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 60,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 69,32</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,03</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,74</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 10,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 5,76</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 11,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 6,14</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 16,15</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 14,64</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,5; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 6,4</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,0; 19,25</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 17,14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,5; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 6,83</t>
         </is>
       </c>
     </row>
@@ -1235,22 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,94</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,63</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 8,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 6,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 4,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 3,93</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 8,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 6,73</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 4,66</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 4,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,01</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,01</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,17</t>
+          <t>0,0; 18,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,42</t>
+          <t>0,0; 18,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,86</t>
+          <t>0,0; 10,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,7</t>
+          <t>0,0; 10,45</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>2,82%</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 178,98</t>
+          <t>0,0; 22,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 119,39</t>
+          <t>0,0; 22,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,92</t>
+          <t>0,0; 12,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,32</t>
+          <t>0,0; 11,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,23</t>
+          <t>0,0; 11,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,23</t>
+          <t>-3,59; 10,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,13</t>
+          <t>0,0; 7,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,03</t>
+          <t>-1,06; 5,76</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,86</t>
+          <t>0,0; 13,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,86</t>
+          <t>-3,59; 11,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,27</t>
+          <t>0,0; 7,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,74</t>
+          <t>-1,04; 6,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,25</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,87</t>
+          <t>0,0; 16,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,1</t>
+          <t>0,0; 14,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 10,44</t>
+          <t>-13,5; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,34</t>
+          <t>0,0; 10,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,76</t>
+          <t>-2,49; 6,4</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,96</t>
+          <t>0,0; 19,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,01</t>
+          <t>0,0; 17,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 11,64</t>
+          <t>-13,5; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,93</t>
+          <t>0,0; 11,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 6,14</t>
+          <t>-2,5; 6,83</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 0,0</t>
+          <t>0,0; 12,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,11</t>
+          <t>0,0; 7,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 6,4</t>
+          <t>0,0; 7,94</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 0,0</t>
+          <t>0,0; 13,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,25</t>
+          <t>0,0; 7,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,83</t>
+          <t>0,0; 8,63</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,63</t>
+          <t>1,17; 8,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,07</t>
+          <t>-0,49; 6,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,22</t>
+          <t>1,14; 4,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,94</t>
+          <t>0,25; 3,93</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,45</t>
+          <t>1,19; 8,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,73</t>
+          <t>-0,49; 6,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,79</t>
+          <t>1,15; 4,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,63</t>
+          <t>0,25; 4,1</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 4,05</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 4,43</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 8,05</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 6,25</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 4,45</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 3,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>3,34%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>2,2%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>1,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 4,23</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 4,63</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 8,76</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 6,73</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 4,66</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 4,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Habitat-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,14</t>
+          <t>0,0; 18,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,48</t>
+          <t>0,0; 18,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,98</t>
+          <t>0,0; 9,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,45</t>
+          <t>0,0; 9,37</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,16</t>
+          <t>0,0; 23,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,65</t>
+          <t>0,0; 22,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,34</t>
+          <t>0,0; 10,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,66</t>
+          <t>0,0; 10,33</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,87</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,1</t>
+          <t>0,0; 7,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,65</t>
+          <t>0,0; 12,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 10,44</t>
+          <t>-3,65; 9,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,34</t>
+          <t>0,0; 7,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,76</t>
+          <t>-1,4; 5,94</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,96</t>
+          <t>0,0; 9,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,01</t>
+          <t>0,0; 8,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,2</t>
+          <t>0,0; 14,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 11,64</t>
+          <t>-3,65; 10,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,93</t>
+          <t>0,0; 7,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 6,14</t>
+          <t>-1,42; 6,32</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,15</t>
+          <t>0,0; 14,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,64</t>
+          <t>0,0; 14,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 0,0</t>
+          <t>-13,46; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,11</t>
+          <t>0,0; 7,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 6,4</t>
+          <t>-2,41; 6,29</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,25</t>
+          <t>0,0; 16,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,14</t>
+          <t>0,0; 17,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 0,0</t>
+          <t>-13,46; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,25</t>
+          <t>0,0; 8,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,83</t>
+          <t>-2,42; 6,68</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,63</t>
+          <t>0,0; 12,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,07</t>
+          <t>0,0; 13,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,22</t>
+          <t>0,0; 6,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,94</t>
+          <t>0,0; 6,94</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,45</t>
+          <t>0,0; 13,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,73</t>
+          <t>0,0; 15,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,79</t>
+          <t>0,0; 7,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,63</t>
+          <t>0,0; 7,46</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,05</t>
+          <t>0,44; 4,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,43</t>
+          <t>0,44; 4,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,05</t>
+          <t>1,22; 7,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,25</t>
+          <t>-0,52; 5,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,45</t>
+          <t>1,09; 4,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,93</t>
+          <t>0,18; 3,88</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,23</t>
+          <t>0,44; 4,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,63</t>
+          <t>0,44; 4,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,76</t>
+          <t>1,24; 7,89</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,73</t>
+          <t>-0,48; 6,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,66</t>
+          <t>1,11; 4,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,1</t>
+          <t>0,17; 4,03</t>
         </is>
       </c>
     </row>
